--- a/works/nettyServer/target/classes/excels/scene.xlsx
+++ b/works/nettyServer/target/classes/excels/scene.xlsx
@@ -16,32 +16,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>相邻场景</t>
-  </si>
-  <si>
-    <t>场景NPC</t>
-  </si>
-  <si>
-    <t>场景类型</t>
-  </si>
-  <si>
-    <t>1,</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>neighbor</t>
+  </si>
+  <si>
+    <t>npc</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>门派出生地</t>
   </si>
   <si>
-    <t>2,</t>
-  </si>
-  <si>
     <t>1,5,6</t>
   </si>
   <si>
@@ -54,30 +48,18 @@
     <t>2,4</t>
   </si>
   <si>
-    <t>3,</t>
-  </si>
-  <si>
     <t>建木</t>
   </si>
   <si>
     <t>2,4,6</t>
   </si>
   <si>
-    <t>6,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
     <t>盐泉村</t>
   </si>
   <si>
     <t>3,5,7</t>
   </si>
   <si>
-    <t>5,</t>
-  </si>
-  <si>
     <t>紫荆谷</t>
   </si>
   <si>
@@ -93,16 +75,10 @@
     <t>2,6</t>
   </si>
   <si>
-    <t>7,</t>
-  </si>
-  <si>
     <t>白水台</t>
   </si>
   <si>
     <t>2,4,5</t>
-  </si>
-  <si>
-    <t>8,</t>
   </si>
   <si>
     <t>玉狐宫</t>
@@ -115,8 +91,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,7 +104,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,135 +246,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,37 +256,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,145 +376,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +454,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,8 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,26 +522,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,17 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1052,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1099,139 +1075,139 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>19</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>25</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>28</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/target/classes/excels/scene.xlsx
+++ b/works/nettyServer/target/classes/excels/scene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +30,7 @@
     <t>npc</t>
   </si>
   <si>
-    <t>type</t>
+    <t>monster</t>
   </si>
   <si>
     <t>门派出生地</t>
@@ -39,6 +39,9 @@
     <t>1,5,6</t>
   </si>
   <si>
+    <t>1,1,1,1,1</t>
+  </si>
+  <si>
     <t>九黎城</t>
   </si>
   <si>
@@ -48,12 +51,18 @@
     <t>2,4</t>
   </si>
   <si>
+    <t>1,2,2,2,2,2</t>
+  </si>
+  <si>
     <t>建木</t>
   </si>
   <si>
     <t>2,4,6</t>
   </si>
   <si>
+    <t>3,4,4,3</t>
+  </si>
+  <si>
     <t>盐泉村</t>
   </si>
   <si>
@@ -66,6 +75,9 @@
     <t>4,6,7,8</t>
   </si>
   <si>
+    <t>4,4,4,2</t>
+  </si>
+  <si>
     <t>八卦田</t>
   </si>
   <si>
@@ -75,6 +87,9 @@
     <t>2,6</t>
   </si>
   <si>
+    <t>3,3,3,4,4,4,4</t>
+  </si>
+  <si>
     <t>白水台</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
   </si>
   <si>
     <t>玉狐宫</t>
+  </si>
+  <si>
+    <t>5,5,5</t>
   </si>
 </sst>
 </file>
@@ -89,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -103,22 +121,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +131,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,23 +145,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,29 +221,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,41 +259,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,6 +274,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,7 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,55 +346,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,103 +442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,34 +468,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -507,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +541,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,7 +1070,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1087,8 +1105,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1096,16 +1114,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1113,16 +1131,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1130,16 +1148,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1147,16 +1165,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1164,16 +1182,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1181,16 +1199,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1198,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1206,8 +1224,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/target/classes/excels/scene.xlsx
+++ b/works/nettyServer/target/classes/excels/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="15275" windowHeight="7307"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>monster</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>门派出生地</t>
   </si>
   <si>
@@ -45,7 +48,7 @@
     <t>九黎城</t>
   </si>
   <si>
-    <t>1,3,7</t>
+    <t>1,3</t>
   </si>
   <si>
     <t>2,4</t>
@@ -57,7 +60,7 @@
     <t>建木</t>
   </si>
   <si>
-    <t>2,4,6</t>
+    <t>2,6</t>
   </si>
   <si>
     <t>3,4,4,3</t>
@@ -66,15 +69,9 @@
     <t>盐泉村</t>
   </si>
   <si>
-    <t>3,5,7</t>
-  </si>
-  <si>
     <t>紫荆谷</t>
   </si>
   <si>
-    <t>4,6,7,8</t>
-  </si>
-  <si>
     <t>4,4,4,2</t>
   </si>
   <si>
@@ -84,22 +81,16 @@
     <t>3,5</t>
   </si>
   <si>
-    <t>2,6</t>
-  </si>
-  <si>
     <t>3,3,3,4,4,4,4</t>
   </si>
   <si>
     <t>白水台</t>
   </si>
   <si>
-    <t>2,4,5</t>
-  </si>
-  <si>
     <t>玉狐宫</t>
   </si>
   <si>
-    <t>5,5,5</t>
+    <t>5,5,5,5,5,5,5,5</t>
   </si>
 </sst>
 </file>
@@ -107,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -121,19 +112,85 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +202,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -153,113 +218,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,31 +265,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,151 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,60 +459,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -542,11 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +512,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,15 +1058,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,66 +1082,75 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5">
@@ -1159,50 +1159,56 @@
       <c r="E5">
         <v>7</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
+      <c r="C6">
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1210,22 +1216,25 @@
       <c r="E8">
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/target/classes/excels/scene.xlsx
+++ b/works/nettyServer/target/classes/excels/scene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>destroy</t>
+  </si>
+  <si>
     <t>门派出生地</t>
   </si>
   <si>
@@ -90,7 +93,7 @@
     <t>玉狐宫</t>
   </si>
   <si>
-    <t>5,5,5,5,5,5,5,5</t>
+    <t>5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5</t>
   </si>
 </sst>
 </file>
@@ -98,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,6 +116,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,7 +130,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,43 +190,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,8 +219,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,30 +245,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,37 +268,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,31 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,109 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,23 +465,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,16 +496,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +534,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -547,15 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,15 +1061,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,6 +1087,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1091,16 +1097,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1111,16 +1117,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1131,27 +1137,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1161,6 +1167,9 @@
       </c>
       <c r="F5">
         <v>3</v>
+      </c>
+      <c r="G5">
+        <v>180000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1168,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1177,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1188,27 +1197,27 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1219,22 +1228,28 @@
       <c r="F8">
         <v>3</v>
       </c>
+      <c r="G8">
+        <v>300000</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>2</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/target/classes/excels/scene.xlsx
+++ b/works/nettyServer/target/classes/excels/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15275" windowHeight="7307"/>
+    <workbookView windowWidth="15708" windowHeight="8435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,15 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +153,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,14 +189,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,85 +258,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,8 +497,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -495,41 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,13 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,16 +579,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,115 +597,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>10000</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
